--- a/Assignment4/execTime.xlsx
+++ b/Assignment4/execTime.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="390" yWindow="525" windowWidth="19815" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Running Time comparisons of the 3 algorithms:</t>
   </si>
@@ -39,7 +40,7 @@
     <t>Quickhull</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t> </t>
   </si>
   <si>
     <t>Case 2: No. of points lying on the convex hull ≠ n.</t>
@@ -51,23 +52,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="3">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
-      <b/>
-      <color theme="1"/>
-      <sz val="12"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
-      <color theme="1"/>
-      <sz val="12"/>
     </font>
   </fonts>
   <fills count="2">
@@ -144,34 +145,35 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -465,38 +467,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScale="100" view="normal"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="22" customWidth="1"/>
-    <col min="3" max="4" width="22.00781" customWidth="1"/>
-    <col min="5" max="5" width="18.57813" customWidth="1"/>
+    <col min="1" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.75">
+    <row r="1" spans="1:5" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="14.75">
+    <row r="2" spans="1:5" ht="15.75">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="14.75">
+    <row r="3" spans="1:5" ht="15.75">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="14.75">
+    <row r="4" spans="1:5" ht="15.75">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="14.75">
+    <row r="5" spans="1:5" ht="15.75">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -510,7 +514,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" ht="14.75">
+    <row r="6" spans="1:5" ht="15.75">
       <c r="A6" s="4">
         <v>100</v>
       </c>
@@ -524,7 +528,7 @@
         <v>0.53600000000000003</v>
       </c>
     </row>
-    <row r="7" ht="14.75">
+    <row r="7" spans="1:5" ht="15.75">
       <c r="A7" s="4">
         <v>1000</v>
       </c>
@@ -538,7 +542,7 @@
         <v>0.98599999999999999</v>
       </c>
     </row>
-    <row r="8" ht="14.75">
+    <row r="8" spans="1:5" ht="15.75">
       <c r="A8" s="4">
         <v>2000</v>
       </c>
@@ -552,7 +556,7 @@
         <v>1.3640000000000001</v>
       </c>
     </row>
-    <row r="9" ht="14.75">
+    <row r="9" spans="1:5" ht="15.75">
       <c r="A9" s="4">
         <v>5000</v>
       </c>
@@ -566,7 +570,7 @@
         <v>2.1579999999999999</v>
       </c>
     </row>
-    <row r="10" ht="14.75">
+    <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="6">
         <v>10000</v>
       </c>
@@ -580,17 +584,17 @@
         <v>2.3079999999999998</v>
       </c>
     </row>
-    <row r="11" ht="14.75">
+    <row r="11" spans="1:5" ht="15.75">
       <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" ht="14.75">
+    <row r="12" spans="1:5" ht="15.75">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" ht="14.75">
+    <row r="13" spans="1:5" ht="15.75">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -607,7 +611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" ht="14.75">
+    <row r="14" spans="1:5" ht="15.75">
       <c r="A14" s="4">
         <v>100</v>
       </c>
@@ -615,16 +619,16 @@
         <v>10</v>
       </c>
       <c r="C14" s="4">
-        <v>0.012999999999999999</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="D14" s="4">
         <v>0.01</v>
       </c>
       <c r="E14" s="5">
-        <v>0.0080000000000000002</v>
-      </c>
-    </row>
-    <row r="15" ht="14.75">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75">
       <c r="A15" s="4">
         <v>1000</v>
       </c>
@@ -632,16 +636,16 @@
         <v>18</v>
       </c>
       <c r="C15" s="4">
-        <v>0.023</v>
+        <v>2.3E-2</v>
       </c>
       <c r="D15" s="4">
-        <v>0.014999999999999999</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="E15" s="5">
-        <v>0.014</v>
-      </c>
-    </row>
-    <row r="16" ht="14.75">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75">
       <c r="A16" s="4">
         <v>2000</v>
       </c>
@@ -649,16 +653,16 @@
         <v>17</v>
       </c>
       <c r="C16" s="4">
-        <v>0.033000000000000002</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="D16" s="4">
-        <v>0.021000000000000001</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="E16" s="5">
-        <v>0.017999999999999999</v>
-      </c>
-    </row>
-    <row r="17" ht="14.75">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75">
       <c r="A17" s="4">
         <v>5000</v>
       </c>
@@ -666,16 +670,16 @@
         <v>21</v>
       </c>
       <c r="C17" s="4">
-        <v>0.037999999999999999</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="D17" s="4">
-        <v>0.029000000000000001</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="E17" s="5">
-        <v>0.025000000000000001</v>
-      </c>
-    </row>
-    <row r="18" ht="14.75">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75">
       <c r="A18" s="6">
         <v>10000</v>
       </c>
@@ -683,27 +687,27 @@
         <v>12</v>
       </c>
       <c r="C18" s="6">
-        <v>0.044999999999999998</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="D18" s="6">
-        <v>0.033000000000000002</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="E18" s="7">
-        <v>0.034000000000000002</v>
-      </c>
-    </row>
-    <row r="19" ht="14.75">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" ht="14.75">
+    <row r="20" spans="1:5" ht="15.75">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup orientation="portrait" scale="100" paperSize="9" fitToWidth="0" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>